--- a/src/main/java/dataEngine/dataEngine.xlsx
+++ b/src/main/java/dataEngine/dataEngine.xlsx
@@ -27,7 +27,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Action_Keyword</t>
+    <t>Action Keyword</t>
   </si>
   <si>
     <t>Login_01</t>
@@ -94,10 +94,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,75 +113,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,11 +195,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,6 +213,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -244,14 +245,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,187 +266,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,21 +457,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -493,6 +471,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,16 +503,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,173 +557,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1075,7 +1065,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1087,16 +1077,16 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="37" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataEngine/dataEngine.xlsx
+++ b/src/main/java/dataEngine/dataEngine.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20355" windowHeight="11790"/>
+    <workbookView windowWidth="23595" windowHeight="10860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TestCases" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -27,6 +27,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Page Object</t>
+  </si>
+  <si>
     <t>Action Keyword</t>
   </si>
   <si>
@@ -57,7 +60,10 @@
     <t>点击登录链接</t>
   </si>
   <si>
-    <t>clickLoginLink</t>
+    <t>loginLink</t>
+  </si>
+  <si>
+    <t>click</t>
   </si>
   <si>
     <t>TS_004</t>
@@ -66,7 +72,10 @@
     <t>输入用户名</t>
   </si>
   <si>
-    <t>inputUsername</t>
+    <t>usernameInputBox</t>
+  </si>
+  <si>
+    <t>input</t>
   </si>
   <si>
     <t>TS_005</t>
@@ -75,7 +84,7 @@
     <t>输入密码</t>
   </si>
   <si>
-    <t>inputPassword</t>
+    <t>passwordInputBox</t>
   </si>
   <si>
     <t>TS_006</t>
@@ -84,7 +93,25 @@
     <t>点击登录按钮</t>
   </si>
   <si>
-    <t>clickLoginButton</t>
+    <t>loginSubmitButton</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Run Mode</t>
+  </si>
+  <si>
+    <t>账号登录</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>AddContactPerson_01</t>
+  </si>
+  <si>
+    <t>添加用户</t>
   </si>
 </sst>
 </file>
@@ -92,18 +119,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -114,35 +147,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,37 +161,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -195,9 +169,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,47 +267,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,67 +299,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,19 +461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,91 +479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,6 +490,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,11 +517,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,19 +559,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,26 +580,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,141 +610,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1062,116 +1098,133 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="4" max="5" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="37" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="1" ht="37" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1184,14 +1237,53 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
